--- a/docentes/Medina Tolentino Francisco - Estadisticos 20211.xlsx
+++ b/docentes/Medina Tolentino Francisco - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="96">
   <si>
     <t>Mat</t>
   </si>
@@ -71,6 +71,240 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>MENA</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>ALVARADO</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>ROMANOS</t>
+  </si>
+  <si>
+    <t>CHACÓN</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TENTZOHUA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>YOPIHUA</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>QUIÑONES</t>
+  </si>
+  <si>
+    <t>ANGELES</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>SIERRA</t>
+  </si>
+  <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>LEPE</t>
+  </si>
+  <si>
+    <t>GUEVARA</t>
+  </si>
+  <si>
+    <t>TEZOCO</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>BRETON</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>LEÓN</t>
+  </si>
+  <si>
+    <t>LINARES</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>HANIA ZARETH</t>
+  </si>
+  <si>
+    <t>PAOLA JAZMIN</t>
+  </si>
+  <si>
+    <t>ANGELINA</t>
+  </si>
+  <si>
+    <t>LUIS REY</t>
+  </si>
+  <si>
+    <t>CITLALI ESPERANZA</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>SOLANO</t>
+  </si>
+  <si>
+    <t>PEDRO ANGEL</t>
+  </si>
+  <si>
+    <t>DAVID OSWALDO</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>MIA ARANZA</t>
+  </si>
+  <si>
+    <t>MICHEL</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>ANGEL GABRIEL</t>
+  </si>
+  <si>
+    <t>ANDREA YONETH</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>KATHIA</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>VANESSA AMAIRANY</t>
+  </si>
+  <si>
+    <t>REGINA ISABEL</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
+    <t>ANA PAOLA</t>
+  </si>
+  <si>
+    <t>ALONDRA YURIDIA</t>
+  </si>
+  <si>
+    <t>ANGEL DAVID</t>
+  </si>
+  <si>
+    <t>RUBI</t>
+  </si>
+  <si>
+    <t>MARYFER</t>
+  </si>
+  <si>
+    <t>JOSE RUBEN</t>
+  </si>
+  <si>
+    <t>ALEXIS ISAI</t>
   </si>
 </sst>
 </file>
@@ -474,16 +708,19 @@
         <v>44</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>40.91</v>
+      </c>
+      <c r="H2">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -497,16 +734,19 @@
         <v>43</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>39.53</v>
+      </c>
+      <c r="H3">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -520,16 +760,19 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -588,7 +831,7 @@
         <v>44</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -611,7 +854,7 @@
         <v>43</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -634,7 +877,7 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -696,16 +939,19 @@
         <v>44</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>40.91</v>
+      </c>
+      <c r="H2">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -719,16 +965,19 @@
         <v>43</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>39.53</v>
+      </c>
+      <c r="H3">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -742,16 +991,19 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -761,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -794,6 +1046,673 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>21330051920031</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>21330051920067</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920185</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>21330051920088</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>21330051920099</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>21330051920101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>21330051920104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>21330051920105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>21330051920135</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>21330051920136</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>21330051920030</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>21330051920046</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>21330051920048</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>21330051920051</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>21330051920054</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>21330051920056</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>21330051920059</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>21330051920072</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>21330051920080</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>21330051920082</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21330051920083</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>21330051920084</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>21330051920091</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>21330051920100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>21330051920102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>21330051920107</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>21330051920108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>21330051920138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>21330051920145</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Medina Tolentino Francisco - Estadisticos 20211.xlsx
+++ b/docentes/Medina Tolentino Francisco - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="69">
   <si>
     <t>Mat</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
     <t>VEGA</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>DE LOS SANTOS</t>
   </si>
   <si>
-    <t>MENA</t>
-  </si>
-  <si>
     <t>ALVAREZ</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
     <t>ALVARADO</t>
   </si>
   <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
@@ -118,111 +109,69 @@
     <t>ORTIZ</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
     <t>ROMANOS</t>
   </si>
   <si>
     <t>CHACÓN</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>TENTZOHUA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>YOPIHUA</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>QUIÑONES</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>LEPE</t>
+  </si>
+  <si>
+    <t>TEZOCO</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
   </si>
   <si>
     <t>DE JESUS</t>
   </si>
   <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>TENTZOHUA</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>CABRERA</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>YOPIHUA</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>QUIÑONES</t>
-  </si>
-  <si>
-    <t>ANGELES</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>SIERRA</t>
-  </si>
-  <si>
-    <t>CASTELLANOS</t>
-  </si>
-  <si>
-    <t>LEPE</t>
-  </si>
-  <si>
-    <t>GUEVARA</t>
-  </si>
-  <si>
-    <t>TEZOCO</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>BRETON</t>
-  </si>
-  <si>
     <t>DE LA LUZ</t>
   </si>
   <si>
-    <t>MORENO</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
     <t>LEÓN</t>
   </si>
   <si>
     <t>LINARES</t>
   </si>
   <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
     <t>HANIA ZARETH</t>
   </si>
   <si>
@@ -241,9 +190,6 @@
     <t>GABRIELA</t>
   </si>
   <si>
-    <t>SOLANO</t>
-  </si>
-  <si>
     <t>PEDRO ANGEL</t>
   </si>
   <si>
@@ -253,9 +199,6 @@
     <t>PATRICIA</t>
   </si>
   <si>
-    <t>MIA ARANZA</t>
-  </si>
-  <si>
     <t>MICHEL</t>
   </si>
   <si>
@@ -265,46 +208,22 @@
     <t>ANGEL GABRIEL</t>
   </si>
   <si>
-    <t>ANDREA YONETH</t>
-  </si>
-  <si>
     <t>DANIELA</t>
   </si>
   <si>
     <t>KATHIA</t>
   </si>
   <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>VANESSA AMAIRANY</t>
-  </si>
-  <si>
     <t>REGINA ISABEL</t>
   </si>
   <si>
     <t>VANESSA</t>
   </si>
   <si>
-    <t>ANA PAOLA</t>
-  </si>
-  <si>
-    <t>ALONDRA YURIDIA</t>
-  </si>
-  <si>
-    <t>ANGEL DAVID</t>
-  </si>
-  <si>
     <t>RUBI</t>
   </si>
   <si>
     <t>MARYFER</t>
-  </si>
-  <si>
-    <t>JOSE RUBEN</t>
-  </si>
-  <si>
-    <t>ALEXIS ISAI</t>
   </si>
 </sst>
 </file>
@@ -708,16 +627,16 @@
         <v>44</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>40.91</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>8.800000000000001</v>
@@ -734,19 +653,19 @@
         <v>43</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>39.53</v>
+        <v>53.49</v>
       </c>
       <c r="H3">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -757,22 +676,22 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>52.38</v>
       </c>
       <c r="H4">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
@@ -831,7 +750,7 @@
         <v>44</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -854,7 +773,7 @@
         <v>43</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -871,13 +790,13 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -939,16 +858,16 @@
         <v>44</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>40.91</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>8.800000000000001</v>
@@ -965,19 +884,19 @@
         <v>43</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>39.53</v>
+        <v>53.49</v>
       </c>
       <c r="H3">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -988,22 +907,22 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>52.38</v>
       </c>
       <c r="H4">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
@@ -1013,7 +932,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1048,16 +967,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>21330051920031</v>
+        <v>21330051920067</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1071,16 +990,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>21330051920067</v>
+        <v>20330051920185</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1094,22 +1013,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920185</v>
+        <v>21330051920088</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1117,16 +1036,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>21330051920088</v>
+        <v>21330051920099</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1140,16 +1059,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>21330051920099</v>
+        <v>21330051920101</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1163,16 +1082,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>21330051920101</v>
+        <v>21330051920104</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1186,22 +1105,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>21330051920104</v>
+        <v>21330051920135</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1209,22 +1128,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>21330051920105</v>
+        <v>21330051920136</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1232,22 +1151,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>21330051920135</v>
+        <v>21330051920030</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -1255,22 +1174,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>21330051920136</v>
+        <v>21330051920048</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -1278,16 +1197,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>21330051920030</v>
+        <v>21330051920051</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1301,16 +1220,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>21330051920046</v>
+        <v>21330051920054</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1324,16 +1243,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>21330051920048</v>
+        <v>21330051920059</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1347,22 +1266,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>21330051920051</v>
+        <v>21330051920072</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -1370,22 +1289,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>21330051920054</v>
+        <v>21330051920083</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>6</v>
@@ -1393,22 +1312,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>21330051920056</v>
+        <v>21330051920084</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17">
         <v>6</v>
@@ -1416,22 +1335,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>21330051920059</v>
+        <v>21330051920107</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -1439,16 +1358,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>21330051920072</v>
+        <v>21330051920108</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1457,259 +1376,6 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>21330051920080</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>21330051920082</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>21330051920083</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>21330051920084</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>21330051920091</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>21330051920100</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>21330051920102</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>21330051920107</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>21330051920108</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>21330051920138</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>21330051920145</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Medina Tolentino Francisco - Estadisticos 20211.xlsx
+++ b/docentes/Medina Tolentino Francisco - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
   <si>
     <t>Mat</t>
   </si>
@@ -91,6 +91,9 @@
     <t>DE LOS SANTOS</t>
   </si>
   <si>
+    <t>VILLA</t>
+  </si>
+  <si>
     <t>ALVAREZ</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
     <t>QUIÑONES</t>
   </si>
   <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
     <t>RIVERA</t>
   </si>
   <si>
@@ -188,6 +194,9 @@
   </si>
   <si>
     <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>FLOR GUADALUPE</t>
   </si>
   <si>
     <t>PEDRO ANGEL</t>
@@ -932,7 +941,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -973,10 +982,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -996,10 +1005,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1019,10 +1028,10 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1042,10 +1051,10 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1068,7 +1077,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1088,10 +1097,10 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1105,22 +1114,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>21330051920135</v>
+        <v>21330051920387</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1128,16 +1137,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>21330051920136</v>
+        <v>21330051920135</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1151,22 +1160,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>21330051920030</v>
+        <v>21330051920136</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -1174,16 +1183,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>21330051920048</v>
+        <v>21330051920030</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1197,16 +1206,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>21330051920051</v>
+        <v>21330051920048</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1220,16 +1229,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>21330051920054</v>
+        <v>21330051920051</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1243,16 +1252,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>21330051920059</v>
+        <v>21330051920054</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1266,22 +1275,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>21330051920072</v>
+        <v>21330051920059</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -1289,16 +1298,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>21330051920083</v>
+        <v>21330051920072</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1312,16 +1321,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>21330051920084</v>
+        <v>21330051920083</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -1335,16 +1344,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>21330051920107</v>
+        <v>21330051920084</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1358,16 +1367,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>21330051920108</v>
+        <v>21330051920107</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1376,6 +1385,29 @@
         <v>10</v>
       </c>
       <c r="G19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>21330051920108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20">
         <v>6</v>
       </c>
     </row>
